--- a/data/trans_camb/MCS12_SP_R3-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.234198230960775</v>
+        <v>7.597406652548062</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.401371458174664</v>
+        <v>5.939230973613443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-17.10521749745856</v>
+        <v>-16.95133799545308</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18.29051039498593</v>
+        <v>18.8822119345233</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>10.29182385007913</v>
+        <v>10.13191590020645</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-24.73311267107286</v>
+        <v>-24.60174577331543</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>15.59102780696443</v>
+        <v>15.38990489317135</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>9.939877865482947</v>
+        <v>10.31080071023336</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-18.89922690440886</v>
+        <v>-19.03794731953869</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>22.57303084526421</v>
+        <v>22.48625919573973</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.23528582208523</v>
+        <v>19.89496418620585</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-6.465701789879343</v>
+        <v>-6.294160227247252</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35.56331759865937</v>
+        <v>35.40985350510857</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>25.92133927243547</v>
+        <v>26.22649119949378</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-13.36788282123869</v>
+        <v>-12.31868379528669</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>26.99436031535929</v>
+        <v>27.11113687995133</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>21.24524079537746</v>
+        <v>21.20402359841018</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-11.0174996112475</v>
+        <v>-11.26920218992493</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.7388516417448345</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.7020762404833901</v>
+        <v>-0.7020762404833902</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.3429086927427162</v>
+        <v>0.3670021371972614</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2955158284124645</v>
+        <v>0.28200587778672</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7932208334097224</v>
+        <v>-0.7875936832246976</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6022628694657561</v>
+        <v>0.6316611517359934</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3490924243326693</v>
+        <v>0.3432124139488393</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8098470379611068</v>
+        <v>-0.8146230031392995</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6349472697342624</v>
+        <v>0.633878023107902</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4019294509855063</v>
+        <v>0.4220777951643101</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7720021536517715</v>
+        <v>-0.7795443122323723</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.646630240594279</v>
+        <v>1.670808842031757</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.559042623873776</v>
+        <v>1.410199431986794</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.4430375030199677</v>
+        <v>-0.4305714497003479</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.688040444066949</v>
+        <v>1.63588403401738</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.2298167265844</v>
+        <v>1.22429575114868</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.6038849610850259</v>
+        <v>-0.5973207010336025</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.417897454448139</v>
+        <v>1.466913409815214</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.115612494204152</v>
+        <v>1.129863048740152</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.591009077236535</v>
+        <v>-0.592739846628023</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-25.42677541725719</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-16.62091303610989</v>
+        <v>-16.6209130361099</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-13.26871648851758</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-16.53937081335974</v>
+        <v>-16.77275298522511</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-22.67879252586865</v>
+        <v>-23.31464978410636</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-17.07175394330256</v>
+        <v>-15.7995964058614</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-21.05549536924647</v>
+        <v>-20.5794163814292</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-30.73015160373026</v>
+        <v>-30.43937060121662</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-21.46231598186194</v>
+        <v>-22.35481245219062</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-17.23046771173655</v>
+        <v>-17.12201218287219</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-25.91305045082847</v>
+        <v>-25.52880285954048</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-17.89583061483677</v>
+        <v>-17.45283922416404</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-6.287509180766368</v>
+        <v>-6.300944642091752</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-13.08184051566727</v>
+        <v>-13.69892007603005</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-5.426485424810599</v>
+        <v>-5.436416328908429</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-9.41066292376631</v>
+        <v>-8.924324470522546</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-19.87009063079747</v>
+        <v>-19.90495063400516</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-11.52237510666159</v>
+        <v>-11.22658832937876</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-9.38727888169964</v>
+        <v>-9.254241214485742</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-18.37846219504553</v>
+        <v>-18.12340258494704</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-9.796401977267061</v>
+        <v>-9.728426855219174</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.6225728392013982</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.406961907249452</v>
+        <v>-0.4069619072494521</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.3925951573148299</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5689876522659145</v>
+        <v>-0.5680665600377259</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7771241373104159</v>
+        <v>-0.7731330330789792</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5597010874555725</v>
+        <v>-0.5445595612151243</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4779166266243634</v>
+        <v>-0.4760749215761458</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6998381786038642</v>
+        <v>-0.7090511822569214</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4960567052902746</v>
+        <v>-0.5083489055918363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4815451722436153</v>
+        <v>-0.4811520347806135</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7122655003638848</v>
+        <v>-0.7053201829819797</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4938368739833215</v>
+        <v>-0.4846868824352563</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.257043023472294</v>
+        <v>-0.258592678684537</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.5488465072530608</v>
+        <v>-0.5719572739116672</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2137978129850214</v>
+        <v>-0.2167924523818642</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2443968746711606</v>
+        <v>-0.2406900488312843</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.521854032546691</v>
+        <v>-0.5247811298141752</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3016621256019191</v>
+        <v>-0.2962586174844792</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2913919810545714</v>
+        <v>-0.2953804877555617</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.5707470283738271</v>
+        <v>-0.566631351622505</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.306106156251043</v>
+        <v>-0.3018194793449525</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>6.245118098765396</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10.3530247745425</v>
+        <v>10.35302477454251</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>13.47005345163272</v>
@@ -1083,7 +1083,7 @@
         <v>4.619899734455761</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.957941569152947</v>
+        <v>9.957941569152954</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>12.38376244865372</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.829534456501605</v>
+        <v>7.052257135103009</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.392973374787984</v>
+        <v>2.704151536950352</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.445571234328491</v>
+        <v>6.392338674310164</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.227243301901974</v>
+        <v>8.12739690755847</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.3834059871334209</v>
+        <v>-0.04721869419908715</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.307775437187487</v>
+        <v>5.172935335815894</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.673423702530322</v>
+        <v>8.864208100911762</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.131312562845921</v>
+        <v>1.830248535808046</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.993304824431669</v>
+        <v>7.336815406828453</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.33512808930542</v>
+        <v>16.31148877637487</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.04925665889876</v>
+        <v>10.36221141347233</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.85141834498253</v>
+        <v>14.8969121138786</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.76371669422932</v>
+        <v>19.49640392061818</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.589382463541044</v>
+        <v>9.880609509510766</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.89330457041827</v>
+        <v>14.64440564058423</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>16.18028189261585</v>
+        <v>16.06137129739141</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.463847272527326</v>
+        <v>8.33130511274133</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>13.45895542569777</v>
+        <v>13.51822655995769</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>1.728043312250594</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.864713675590806</v>
+        <v>2.864713675590807</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.325118820756137</v>
@@ -1188,7 +1188,7 @@
         <v>0.4544834294916302</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9796142113805075</v>
+        <v>0.9796142113805084</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.776082878095567</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>1.161461062610562</v>
+        <v>1.064884429021731</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2419345815607631</v>
+        <v>0.4513376770669002</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.005257689297289</v>
+        <v>1.0156514234093</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.5561175871437343</v>
+        <v>0.6573071008821811</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.04887030001065453</v>
+        <v>-0.01965868958311247</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3903179661621838</v>
+        <v>0.3929716474018819</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.02271228204013</v>
+        <v>1.010723260554973</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2259790628224868</v>
+        <v>0.2283336812579382</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.8222261901355442</v>
+        <v>0.8243813430762487</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>7.018757391661955</v>
+        <v>7.50318411081179</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.30870845842868</v>
+        <v>5.108112574710057</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>6.412123096852122</v>
+        <v>6.978405432063302</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.424798638902301</v>
+        <v>2.446621604775</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.121627620752592</v>
+        <v>1.219621532078214</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.916950154042659</v>
+        <v>1.961041053421375</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.890718647186211</v>
+        <v>2.88867236217899</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.495837026076693</v>
+        <v>1.50144073881894</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.496698854703765</v>
+        <v>2.467960693546077</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>12.6527882360861</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.401452641667055</v>
+        <v>4.401452641667053</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.775763593001066</v>
+        <v>7.432888324047695</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.33580070298441</v>
+        <v>3.937073842493043</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.194257935199667</v>
+        <v>-1.726783211787418</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18.90222042079703</v>
+        <v>19.34449808469272</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>9.352825186486101</v>
+        <v>9.513499077560848</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.4845408001168094</v>
+        <v>-0.1137566467770412</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>15.1694334454708</v>
+        <v>15.28578161838587</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>8.57848929642797</v>
+        <v>8.508204932223954</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7134024762577098</v>
+        <v>0.5882694687536042</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.20236159173981</v>
+        <v>17.95394640872323</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.27751182483625</v>
+        <v>14.56772246636749</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.448389041046109</v>
+        <v>8.746239683696812</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>31.91204450937339</v>
+        <v>31.6367075721699</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>21.46912700969511</v>
+        <v>21.92400309923337</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.68675468171421</v>
+        <v>10.27674580201004</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>23.39687097241972</v>
+        <v>23.22888756656024</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>16.82178271669985</v>
+        <v>16.73579141282165</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.314734286019187</v>
+        <v>8.467162764136832</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.9546767057477664</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3320978925789172</v>
+        <v>0.332097892578917</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.5317890875244889</v>
+        <v>0.5858656576548027</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3320028614191592</v>
+        <v>0.2870378784532974</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1993701624251567</v>
+        <v>-0.1701129858345098</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.9500289880915294</v>
+        <v>0.979895159639955</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4635282891346526</v>
+        <v>0.4823973477849876</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03188391739365264</v>
+        <v>-0.01222329384928195</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9958848351043805</v>
+        <v>0.9983750358501194</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5724039684971857</v>
+        <v>0.5566367473239687</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.04737525709157987</v>
+        <v>0.03753325332078117</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.479520805473104</v>
+        <v>2.32280018049795</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.103130773399178</v>
+        <v>1.79183598316362</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.143693605681219</v>
+        <v>1.090380498994978</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.298481265069986</v>
+        <v>2.355037402948823</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.536216122097237</v>
+        <v>1.556359848650309</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.75957929214776</v>
+        <v>0.7385086515310393</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.01188042905116</v>
+        <v>2.03955116140301</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.47090625841394</v>
+        <v>1.426050567201703</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7176380921661425</v>
+        <v>0.7188871155181834</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-25.21899656881256</v>
+        <v>-24.8922201701611</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.199728105647222</v>
+        <v>0.9321944711112436</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8.014795117980835</v>
+        <v>8.611538818597804</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-16.02033806131165</v>
+        <v>-16.46281188740842</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.710061486320678</v>
+        <v>2.641800735282552</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>12.33489729722389</v>
+        <v>11.6237233933104</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-17.69722745744834</v>
+        <v>-17.58526368699145</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>5.300405781273801</v>
+        <v>4.310204315537604</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>12.58209628733641</v>
+        <v>13.42066332075791</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-9.218849456621758</v>
+        <v>-9.140558412297015</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>19.88527142004243</v>
+        <v>19.01372438706326</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>25.91295225812586</v>
+        <v>26.01975221647486</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.765648118284278</v>
+        <v>2.722129316635483</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>21.96324322187666</v>
+        <v>21.95553720862028</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>29.15543457452597</v>
+        <v>29.28383552929547</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-5.581297702534357</v>
+        <v>-4.928520916878638</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>18.20202030707957</v>
+        <v>18.65311606145434</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>24.59139369785139</v>
+        <v>25.00479110000186</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7210542773087407</v>
+        <v>-0.7218856442073408</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.03653689718204273</v>
+        <v>0.02163612478517733</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.222241574135507</v>
+        <v>0.2357159787226229</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3726734154343606</v>
+        <v>-0.3687677394684915</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08482140439149451</v>
+        <v>0.05472152163792118</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2859645004815872</v>
+        <v>0.25195715471191</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4774508855484534</v>
+        <v>-0.4768279562192119</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1433217476828695</v>
+        <v>0.11451938425178</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3241879013280251</v>
+        <v>0.3495201101082835</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3497741432072539</v>
+        <v>-0.3406031032899253</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7838207048459268</v>
+        <v>0.7362818014645797</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.004065146570689</v>
+        <v>1.040339960781338</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.08405661880162127</v>
+        <v>0.08295160711973644</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6883440315862669</v>
+        <v>0.6621422661088248</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9138562247196225</v>
+        <v>0.9001180036600419</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1767206233048299</v>
+        <v>-0.1637208496563307</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5841448854704885</v>
+        <v>0.6106045278337588</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8090265631691125</v>
+        <v>0.8131428747443993</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>8.535752735817518</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>5.144817696608878</v>
+        <v>5.144817696608869</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>11.14027523307901</v>
@@ -1734,7 +1734,7 @@
         <v>7.752997110657662</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>7.656965125033298</v>
+        <v>7.656965125033303</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>5.88925182124009</v>
+        <v>6.556843583241998</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>2.070825847598309</v>
+        <v>2.55649044952</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5.959240161625342</v>
+        <v>5.412192933480313</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4.573196807976638</v>
+        <v>4.852103836788683</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.915095370635187</v>
+        <v>1.633918185070582</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.770176849506288</v>
+        <v>-0.5651878682221807</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.992538042325743</v>
+        <v>6.638229264654778</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>3.766015451035408</v>
+        <v>3.973243918410998</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>3.587554210191739</v>
+        <v>3.924287291840333</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>16.87820393810441</v>
+        <v>17.04584167741062</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11.7705173112076</v>
+        <v>11.93309769985094</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15.00709113564126</v>
+        <v>14.70084300082594</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17.33476274320366</v>
+        <v>17.44834078131666</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>15.18057574309945</v>
+        <v>14.71780796150895</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.71397516018586</v>
+        <v>10.25809842693159</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>15.47429031223074</v>
+        <v>15.58815436566265</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>11.63708385406682</v>
+        <v>12.25731391142014</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>11.15578344761382</v>
+        <v>11.44103540740225</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.5750774579857744</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3466207110652312</v>
+        <v>0.3466207110652306</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1.105868571292788</v>
@@ -1839,7 +1839,7 @@
         <v>0.7696215451250056</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.7600886787892182</v>
+        <v>0.7600886787892187</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.7787582816492813</v>
+        <v>0.8770433663288941</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.2562803380178554</v>
+        <v>0.3038706997852256</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.7423381911678172</v>
+        <v>0.6550369785545993</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2398551909423384</v>
+        <v>0.2550896720057381</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.09941024826431465</v>
+        <v>0.09642675297849292</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.04973996232829201</v>
+        <v>-0.03093433510369971</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5585623720189282</v>
+        <v>0.5394320732846077</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.3074305017578541</v>
+        <v>0.3326730490886851</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.2830231882592154</v>
+        <v>0.3200925880553721</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>5.223638363124529</v>
+        <v>5.159954149996472</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3.47986088718514</v>
+        <v>3.459124210561873</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4.596580815917171</v>
+        <v>4.623066417537762</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.49994786336871</v>
+        <v>1.497509199219232</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.303052339540099</v>
+        <v>1.235266525367009</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9481402520317525</v>
+        <v>0.9162291201901331</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.882195032759405</v>
+        <v>1.91235858472902</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.414734747188221</v>
+        <v>1.514754351033877</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.327935504690321</v>
+        <v>1.404060155977845</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>9.682521916287898</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>17.06121064167035</v>
+        <v>17.06121064167034</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>4.272606995473846</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.6519902096226633</v>
+        <v>0.1553349263047441</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.697540630582523</v>
+        <v>1.80414087616779</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6.551005138747866</v>
+        <v>6.519667853779191</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.97678673590744</v>
+        <v>-1.241319616459798</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>4.828422509363234</v>
+        <v>4.858808969519619</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>12.32635183723642</v>
+        <v>12.55067163109924</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.287242119423385</v>
+        <v>0.9453537644180502</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>5.132978551209829</v>
+        <v>4.835022015078136</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>11.1099862192902</v>
+        <v>10.75155291214777</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.166209028467183</v>
+        <v>8.806701742111757</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>10.75832011463851</v>
+        <v>10.89606314299748</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>16.13902097807692</v>
+        <v>16.05406666745369</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8.475528445661157</v>
+        <v>8.298275360202757</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>14.26259540256964</v>
+        <v>14.44856114526523</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>21.66325411873668</v>
+        <v>21.94710043849134</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.552710955243322</v>
+        <v>7.305783918184318</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>11.67988555122834</v>
+        <v>11.48427974963912</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>17.91530229837036</v>
+        <v>17.371044374685</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.4814498476905962</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.8483448151076853</v>
+        <v>0.848344815107685</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2484080262880422</v>
@@ -2053,7 +2053,7 @@
         <v>0.4737398086045453</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.8309461734593413</v>
+        <v>0.830946173459341</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.03637629041268451</v>
+        <v>0.0120773556066434</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1090134501905148</v>
+        <v>0.1112562430260549</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3830203585864952</v>
+        <v>0.4132203185459411</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.04776688798176375</v>
+        <v>-0.05308300387463229</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2072823047069283</v>
+        <v>0.2144831352600514</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5270231725258516</v>
+        <v>0.5412349080563867</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.06612033241618864</v>
+        <v>0.04763487792058523</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2773248173153855</v>
+        <v>0.2470920674360451</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.5851357106651375</v>
+        <v>0.5539999615203308</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7265256258909514</v>
+        <v>0.7609417529868169</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.8807600224929689</v>
+        <v>0.8925841216834898</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.302697224786296</v>
+        <v>1.319098622203007</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4737889192483564</v>
+        <v>0.4596161916431219</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.8015362942472399</v>
+        <v>0.8245730968360334</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.216045354054738</v>
+        <v>1.239753232821397</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4857926012090943</v>
+        <v>0.4538347271493707</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.735886029187525</v>
+        <v>0.7229177623256841</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.137893088824471</v>
+        <v>1.107963075927554</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-10.77967031291732</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-7.804570034078287</v>
+        <v>-7.804570034078284</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>3.471343768429319</v>
@@ -2153,7 +2153,7 @@
         <v>-13.08313844001805</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-6.073643983756067</v>
+        <v>-6.07364398375606</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>3.577695483337762</v>
@@ -2162,7 +2162,7 @@
         <v>-11.95470680893852</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-6.940621528527208</v>
+        <v>-6.940621528527219</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.618547112390476</v>
+        <v>-1.918296875152882</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-15.20635124349503</v>
+        <v>-15.11634052262839</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-12.520644752693</v>
+        <v>-12.6391401998137</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.993155495759738</v>
+        <v>-1.527042392933028</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-17.7850726046046</v>
+        <v>-17.70173763070257</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-10.83457436789589</v>
+        <v>-10.15482321287721</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.4150620657336194</v>
+        <v>0.07355843258958399</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-15.35219946974629</v>
+        <v>-15.10455730659306</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-10.05614160108926</v>
+        <v>-9.991150363533624</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>8.745929106769125</v>
+        <v>8.172027301007793</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-6.140889937053424</v>
+        <v>-6.365314116988157</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-3.292727715872287</v>
+        <v>-3.141416787541409</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>8.513081763740226</v>
+        <v>8.229220402543653</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-8.227210115225498</v>
+        <v>-8.892113606878107</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-1.982706359292992</v>
+        <v>-1.703015110041143</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>7.430844499594465</v>
+        <v>6.942124811632169</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-8.429536708828625</v>
+        <v>-8.973778089264673</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-3.799833733913326</v>
+        <v>-3.856296980605404</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.3618802671545026</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.2620042920583463</v>
+        <v>-0.2620042920583462</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.09713949730300908</v>
@@ -2258,7 +2258,7 @@
         <v>-0.3661087970506788</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.1699603273940406</v>
+        <v>-0.1699603273940404</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.1089460968138713</v>
@@ -2267,7 +2267,7 @@
         <v>-0.364038429613073</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.2113521479167147</v>
+        <v>-0.2113521479167151</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.05206408796850368</v>
+        <v>-0.05750758059422445</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.4745177226745927</v>
+        <v>-0.4687566424611073</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3810349233097381</v>
+        <v>-0.3914807622313263</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.05055019789143769</v>
+        <v>-0.04087111990942702</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4610755410446082</v>
+        <v>-0.4697220704255269</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2795803105057463</v>
+        <v>-0.2668887035992755</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.01165229957278514</v>
+        <v>0.001031039413042906</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.4449271746090598</v>
+        <v>-0.4371896508063102</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.2867119174111913</v>
+        <v>-0.290512297617728</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3210770714047106</v>
+        <v>0.3022629459476842</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.2252456707407586</v>
+        <v>-0.2294754434692266</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1220449917471658</v>
+        <v>-0.1144527522377267</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2601647450628056</v>
+        <v>0.2458427761758489</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.2457432248034679</v>
+        <v>-0.263021032682711</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.05710552899319902</v>
+        <v>-0.05387013020942907</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2364982336190332</v>
+        <v>0.2235800090803899</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.2710880394870891</v>
+        <v>-0.2842627962967048</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.1194836055320309</v>
+        <v>-0.123589606556389</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>0.22779937794907</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>1.02470210937172</v>
+        <v>1.024702109371722</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>6.126622269550619</v>
@@ -2376,7 +2376,7 @@
         <v>0.2510742630132845</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>1.174212772565009</v>
+        <v>1.174212772565006</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.489136115613495</v>
+        <v>1.606552428496381</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.718040046516696</v>
+        <v>-1.667581763112667</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.9378960507184675</v>
+        <v>-0.8394996425860189</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>3.989304396834274</v>
+        <v>3.859483974571123</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-2.046938740883746</v>
+        <v>-1.97188233848519</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.657567137721935</v>
+        <v>-0.761280303003928</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>3.376691946221799</v>
+        <v>3.486237443728891</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-1.174036422860114</v>
+        <v>-1.159976355815672</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.2671545139297836</v>
+        <v>-0.1555738658824466</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>5.645266624583321</v>
+        <v>5.66675982758675</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.267804535194192</v>
+        <v>2.246542818291902</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>3.004881281435319</v>
+        <v>3.040007041215161</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>8.508512561419261</v>
+        <v>8.19523097148166</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>2.235267404888454</v>
+        <v>2.546171807871318</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>3.390378784520181</v>
+        <v>3.302402582405178</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>6.270165499252762</v>
+        <v>6.567008163189088</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.718078718894004</v>
+        <v>1.73059028203475</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>2.644098952163954</v>
+        <v>2.643765996018671</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.01222516789449775</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.05499205240023092</v>
+        <v>0.05499205240023108</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.2307680996990569</v>
@@ -2481,7 +2481,7 @@
         <v>0.01108384423324407</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.05183642206731311</v>
+        <v>0.05183642206731299</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.0760295596182287</v>
+        <v>0.08528315115170183</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.08722097772660467</v>
+        <v>-0.08552970900735322</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.0481573915484242</v>
+        <v>-0.0435836946301876</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.1440052723038476</v>
+        <v>0.1372705140510313</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.07367397372860289</v>
+        <v>-0.07137248749795534</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.02569299474461225</v>
+        <v>-0.02780484530178143</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1442800934607688</v>
+        <v>0.1498485015915767</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.0504388857115395</v>
+        <v>-0.05036432318671542</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.01187265770617896</v>
+        <v>-0.006373405698258327</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.3165300900281507</v>
+        <v>0.3249733039849931</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.131022888067299</v>
+        <v>0.1281601703043734</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.169418681715147</v>
+        <v>0.173827662737605</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.329102801390492</v>
+        <v>0.3187593612495427</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.08766864038761858</v>
+        <v>0.1008954869460695</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.1341824257009598</v>
+        <v>0.1282350107330137</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.2876191252191626</v>
+        <v>0.3011051665246964</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.07785057167681969</v>
+        <v>0.07940554407440242</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.1202127155708256</v>
+        <v>0.1209500182301967</v>
       </c>
     </row>
     <row r="58">
